--- a/Assets/Excel/SkillTable.xlsx
+++ b/Assets/Excel/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C06F3A-0523-46B2-8BC0-656FCD049584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC9F59-7553-424B-A584-6B4DC0541A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2910" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerSkillTable" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,13 @@
     <t xml:space="preserve"> normalAttack1</t>
   </si>
   <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>damage,speedDown</t>
+    <t>Damage,SpeedDown</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
@@ -594,10 +594,10 @@
         <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillTable.xlsx
+++ b/Assets/Excel/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC9F59-7553-424B-A584-6B4DC0541A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C1429-5543-497D-B39F-CF8EE8759D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerSkillTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,28 @@
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>normalAttack2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> normalAttack2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +612,58 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Excel/SkillTable.xlsx
+++ b/Assets/Excel/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C1429-5543-497D-B39F-CF8EE8759D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861D7FF-86A0-423C-9409-6CF3A638C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2040" windowWidth="23250" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerSkillTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -90,25 +90,16 @@
     <t>进行一次平a</t>
   </si>
   <si>
-    <t>normalAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> normalAttack1</t>
-  </si>
-  <si>
-    <t>Damage,SpeedDown</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>normalAttack2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> normalAttack2</t>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>NormalAttack1</t>
   </si>
 </sst>
 </file>
@@ -435,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +558,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -597,69 +588,19 @@
         <v>0.5</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>130</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillTable.xlsx
+++ b/Assets/Excel/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861D7FF-86A0-423C-9409-6CF3A638C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE32C13-7B6A-4045-A269-562B1B83CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="2040" windowWidth="23250" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>NormalAttack1</t>
+  </si>
+  <si>
+    <t>LightningStorm</t>
+  </si>
+  <si>
+    <t>释放闪电风暴</t>
+  </si>
+  <si>
+    <t>Damage,CostEnergy</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +612,56 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>360</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
